--- a/normativa/Anexos/L05T02C03/L05T02C03A23.xlsx
+++ b/normativa/Anexos/L05T02C03/L05T02C03A23.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4710" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Anexo 23a" sheetId="4" r:id="rId1"/>
-    <sheet name="Anexo 23b Nuevo" sheetId="5" r:id="rId2"/>
+    <sheet name="Anexo 23b" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Anexo 23a'!$A$1:$AF$55</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Anexo 23b Nuevo'!$A$1:$AF$51</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Anexo 23b'!$A$1:$AF$55</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="85">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -269,9 +269,6 @@
     <t>(16) Información a ser remitida por la Entidad de Intermediación Financiera que administra el Fondo para Capital Semilla.</t>
   </si>
   <si>
-    <t>ANEXO 23b: DETALLE DE INVERSIONES DEL FONDO PARA CAPITAL SEMILLA Y DE LOS FONDOS DE CRÉDITO DE APOYO A MICRO EMPRESAS Y A LA JUVENTUD</t>
-  </si>
-  <si>
     <t>(15) Información a ser remitida por la Entidad de Intermediación Financiera que administra el Fondo de Garantía de Apoyo a la Construcción.</t>
   </si>
   <si>
@@ -279,6 +276,15 @@
   </si>
   <si>
     <t>ANEXO 23a: DETALLE DE INVERSIONES DE LOS FONDOS DE GARANTÍA DE CRÉDITOS PARA EL SECTOR PRODUCTIVO, DE VIVIENDA DE INTERÉS SOCIAL, PARA EL SECTOR GREMIAL Y DEL FONDO DE GARANTÍA DE APOYO A LA CONSTRUCCIÓN</t>
+  </si>
+  <si>
+    <t>FONDO DE CRÉDITO EMPRENDE BOLIVIA (17)</t>
+  </si>
+  <si>
+    <t>(17) Información a ser remitida por la Entidad de Intermediación Financiera que administra el Fondo de Crédito Emprende Bolivia.</t>
+  </si>
+  <si>
+    <t>ANEXO 23b: DETALLE DE INVERSIONES DEL FONDO PARA CAPITAL SEMILLA, DEL FONDO DE CRÉDITO EMPRENDE BOLIVIA Y DE LOS FONDOS DE CRÉDITO DE APOYO A MICRO EMPRESAS Y/O A LA JUVENTUD</t>
   </si>
 </sst>
 </file>
@@ -1003,44 +1009,44 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.54296875" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="1" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.26953125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="11.7265625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.26953125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.7265625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="9.7265625" style="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="7.26953125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.7265625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.1796875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="9.54296875" style="1" customWidth="1"/>
     <col min="27" max="27" width="7" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.1796875" style="1" customWidth="1"/>
     <col min="29" max="29" width="9" style="1" customWidth="1"/>
-    <col min="30" max="30" width="8.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="8.453125" style="1" customWidth="1"/>
     <col min="31" max="31" width="8" style="1" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="3.5703125" style="1"/>
+    <col min="32" max="32" width="11.1796875" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="3.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
         <v>35</v>
       </c>
@@ -1081,9 +1087,9 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -1117,7 +1123,7 @@
       <c r="AE3" s="60"/>
       <c r="AF3" s="60"/>
     </row>
-    <row r="4" spans="1:37" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="O4" s="2"/>
@@ -1139,7 +1145,7 @@
       <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="6" spans="1:37" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -1153,7 +1159,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:37" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1167,7 +1173,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:37" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -1178,7 +1184,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:37" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="37" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="37" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1400,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>55</v>
       </c>
@@ -1430,7 +1436,7 @@
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
     </row>
-    <row r="13" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1464,7 +1470,7 @@
       <c r="AE13" s="12"/>
       <c r="AF13" s="12"/>
     </row>
-    <row r="14" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
         <v>54</v>
       </c>
@@ -1500,7 +1506,7 @@
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
     </row>
-    <row r="15" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -1534,7 +1540,7 @@
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
     </row>
-    <row r="16" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" s="32" t="s">
         <v>60</v>
       </c>
@@ -1570,7 +1576,7 @@
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
     </row>
-    <row r="17" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" s="32"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
@@ -1604,9 +1610,9 @@
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
     </row>
-    <row r="18" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="41"/>
       <c r="C18" s="41"/>
@@ -1640,7 +1646,7 @@
       <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
     </row>
-    <row r="19" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="41"/>
       <c r="C19" s="41"/>
@@ -1674,7 +1680,7 @@
       <c r="AE19" s="14"/>
       <c r="AF19" s="14"/>
     </row>
-    <row r="20" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1708,7 +1714,7 @@
       <c r="AE20" s="14"/>
       <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
         <v>42</v>
       </c>
@@ -1744,7 +1750,7 @@
       <c r="AE21" s="17"/>
       <c r="AF21" s="17"/>
     </row>
-    <row r="22" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -1778,7 +1784,7 @@
       <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
     </row>
-    <row r="23" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>55</v>
       </c>
@@ -1814,7 +1820,7 @@
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
     </row>
-    <row r="24" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A24" s="10"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -1848,7 +1854,7 @@
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
     </row>
-    <row r="25" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>54</v>
       </c>
@@ -1884,7 +1890,7 @@
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
     </row>
-    <row r="26" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="33"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -1918,7 +1924,7 @@
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A27" s="32" t="s">
         <v>60</v>
       </c>
@@ -1954,7 +1960,7 @@
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
     </row>
-    <row r="28" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -1988,9 +1994,9 @@
       <c r="AE28" s="14"/>
       <c r="AF28" s="14"/>
     </row>
-    <row r="29" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2024,7 +2030,7 @@
       <c r="AE29" s="14"/>
       <c r="AF29" s="14"/>
     </row>
-    <row r="30" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A30" s="32"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2058,7 +2064,7 @@
       <c r="AE30" s="14"/>
       <c r="AF30" s="14"/>
     </row>
-    <row r="31" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -2092,7 +2098,7 @@
       <c r="AE31" s="14"/>
       <c r="AF31" s="14"/>
     </row>
-    <row r="32" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
         <v>43</v>
       </c>
@@ -2128,7 +2134,7 @@
       <c r="AE32" s="17"/>
       <c r="AF32" s="17"/>
     </row>
-    <row r="33" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
         <v>51</v>
       </c>
@@ -2164,7 +2170,7 @@
       <c r="AE33" s="20"/>
       <c r="AF33" s="20"/>
     </row>
-    <row r="34" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
         <v>70</v>
       </c>
@@ -2200,7 +2206,7 @@
       <c r="AE34" s="22"/>
       <c r="AF34" s="22"/>
     </row>
-    <row r="35" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>71</v>
       </c>
@@ -2236,7 +2242,7 @@
       <c r="AE35" s="22"/>
       <c r="AF35" s="22"/>
     </row>
-    <row r="36" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
         <v>72</v>
       </c>
@@ -2272,7 +2278,7 @@
       <c r="AE36" s="22"/>
       <c r="AF36" s="22"/>
     </row>
-    <row r="37" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>52</v>
       </c>
@@ -2308,7 +2314,7 @@
       <c r="AE37" s="22"/>
       <c r="AF37" s="22"/>
     </row>
-    <row r="38" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>50</v>
       </c>
@@ -2344,7 +2350,7 @@
       <c r="AE38" s="22"/>
       <c r="AF38" s="22"/>
     </row>
-    <row r="39" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>73</v>
       </c>
@@ -2380,7 +2386,7 @@
       <c r="AE39" s="22"/>
       <c r="AF39" s="22"/>
     </row>
-    <row r="40" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
         <v>64</v>
       </c>
@@ -2416,7 +2422,7 @@
       <c r="AE40" s="22"/>
       <c r="AF40" s="22"/>
     </row>
-    <row r="41" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
         <v>57</v>
       </c>
@@ -2452,7 +2458,7 @@
       <c r="AE41" s="22"/>
       <c r="AF41" s="22"/>
     </row>
-    <row r="42" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
         <v>74</v>
       </c>
@@ -2488,7 +2494,7 @@
       <c r="AE42" s="22"/>
       <c r="AF42" s="22"/>
     </row>
-    <row r="43" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
         <v>65</v>
       </c>
@@ -2524,7 +2530,7 @@
       <c r="AE43" s="22"/>
       <c r="AF43" s="22"/>
     </row>
-    <row r="44" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>66</v>
       </c>
@@ -2551,7 +2557,7 @@
       <c r="AE44" s="23"/>
       <c r="AF44" s="23"/>
     </row>
-    <row r="45" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
         <v>67</v>
       </c>
@@ -2587,7 +2593,7 @@
       <c r="AE45" s="23"/>
       <c r="AF45" s="23"/>
     </row>
-    <row r="46" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="18" t="s">
         <v>68</v>
       </c>
@@ -2623,9 +2629,9 @@
       <c r="AE46" s="23"/>
       <c r="AF46" s="23"/>
     </row>
-    <row r="47" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="18"/>
       <c r="C47" s="23"/>
@@ -2659,7 +2665,7 @@
       <c r="AE47" s="23"/>
       <c r="AF47" s="23"/>
     </row>
-    <row r="48" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="23"/>
@@ -2693,7 +2699,7 @@
       <c r="AE48" s="23"/>
       <c r="AF48" s="23"/>
     </row>
-    <row r="49" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="23"/>
@@ -2727,7 +2733,7 @@
       <c r="AE49" s="23"/>
       <c r="AF49" s="23"/>
     </row>
-    <row r="50" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="23"/>
@@ -2761,7 +2767,7 @@
       <c r="AE50" s="23"/>
       <c r="AF50" s="23"/>
     </row>
-    <row r="51" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="23"/>
       <c r="C51" s="23"/>
@@ -2795,7 +2801,7 @@
       <c r="AE51" s="23"/>
       <c r="AF51" s="23"/>
     </row>
-    <row r="52" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>5</v>
       </c>
@@ -2809,7 +2815,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
     </row>
-    <row r="53" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="28"/>
@@ -2831,7 +2837,7 @@
       <c r="X53" s="59"/>
       <c r="Y53" s="59"/>
     </row>
-    <row r="54" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -2842,7 +2848,7 @@
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
     </row>
-    <row r="55" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25" t="s">
         <v>6</v>
       </c>
@@ -2879,53 +2885,52 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AK51"/>
+  <dimension ref="A2:AK55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="70" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="13.7" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.54296875" defaultRowHeight="13.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="47" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" style="47" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="47" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" style="47" customWidth="1"/>
+    <col min="2" max="2" width="7.54296875" style="47" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="47" customWidth="1"/>
     <col min="4" max="4" width="7" style="47" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="47" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="47" customWidth="1"/>
+    <col min="5" max="5" width="12.54296875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="47" customWidth="1"/>
     <col min="7" max="7" width="5" style="47" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="47" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="47" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" style="47" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="47" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" style="47" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="47" customWidth="1"/>
-    <col min="15" max="15" width="11.85546875" style="47" customWidth="1"/>
-    <col min="16" max="16" width="11.7109375" style="47" customWidth="1"/>
-    <col min="17" max="17" width="6.28515625" style="47" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" style="47" customWidth="1"/>
-    <col min="19" max="19" width="9.7109375" style="47" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" style="47" customWidth="1"/>
+    <col min="9" max="9" width="5.54296875" style="47" customWidth="1"/>
+    <col min="10" max="10" width="6.26953125" style="47" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" style="47" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="47" customWidth="1"/>
+    <col min="13" max="13" width="8.26953125" style="47" customWidth="1"/>
+    <col min="14" max="14" width="9.81640625" style="47" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="47" customWidth="1"/>
+    <col min="16" max="16" width="11.7265625" style="47" customWidth="1"/>
+    <col min="17" max="17" width="6.26953125" style="47" customWidth="1"/>
+    <col min="18" max="18" width="7.7265625" style="47" customWidth="1"/>
+    <col min="19" max="19" width="9.7265625" style="47" customWidth="1"/>
     <col min="20" max="20" width="9" style="47" customWidth="1"/>
-    <col min="21" max="21" width="7.28515625" style="47" customWidth="1"/>
-    <col min="22" max="22" width="7.7109375" style="47" customWidth="1"/>
-    <col min="23" max="23" width="8.42578125" style="47" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="47" customWidth="1"/>
-    <col min="25" max="25" width="11.140625" style="47" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" style="47" customWidth="1"/>
+    <col min="21" max="21" width="7.26953125" style="47" customWidth="1"/>
+    <col min="22" max="22" width="7.7265625" style="47" customWidth="1"/>
+    <col min="23" max="23" width="8.453125" style="47" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" style="47" customWidth="1"/>
+    <col min="25" max="25" width="11.1796875" style="47" customWidth="1"/>
+    <col min="26" max="26" width="9.54296875" style="47" customWidth="1"/>
     <col min="27" max="27" width="7" style="47" customWidth="1"/>
-    <col min="28" max="28" width="8.140625" style="47" customWidth="1"/>
+    <col min="28" max="28" width="8.1796875" style="47" customWidth="1"/>
     <col min="29" max="29" width="9" style="47" customWidth="1"/>
-    <col min="30" max="30" width="8.42578125" style="47" customWidth="1"/>
+    <col min="30" max="30" width="8.453125" style="47" customWidth="1"/>
     <col min="31" max="31" width="8" style="47" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" style="47" customWidth="1"/>
-    <col min="33" max="16384" width="3.5703125" style="47"/>
+    <col min="32" max="32" width="11.1796875" style="47" customWidth="1"/>
+    <col min="33" max="16384" width="3.54296875" style="47"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>35</v>
       </c>
@@ -2966,9 +2971,9 @@
       <c r="AJ2" s="46"/>
       <c r="AK2" s="46"/>
     </row>
-    <row r="3" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="60" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -3002,7 +3007,7 @@
       <c r="AE3" s="60"/>
       <c r="AF3" s="60"/>
     </row>
-    <row r="4" spans="1:37" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="48"/>
       <c r="B4" s="48"/>
       <c r="O4" s="46"/>
@@ -3024,7 +3029,7 @@
       <c r="AE4" s="46"/>
       <c r="AF4" s="46"/>
     </row>
-    <row r="6" spans="1:37" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>41</v>
       </c>
@@ -3038,7 +3043,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:37" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -3052,7 +3057,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:37" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="4"/>
@@ -3063,7 +3068,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:37" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" ht="98.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
@@ -3161,7 +3166,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:37" s="49" customFormat="1" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" s="49" customFormat="1" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>18</v>
       </c>
@@ -3235,7 +3240,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
@@ -3279,7 +3284,7 @@
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
     </row>
-    <row r="12" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
@@ -3313,7 +3318,7 @@
       <c r="AE12" s="14"/>
       <c r="AF12" s="14"/>
     </row>
-    <row r="13" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A13" s="54" t="s">
         <v>69</v>
       </c>
@@ -3349,7 +3354,7 @@
       <c r="AE13" s="14"/>
       <c r="AF13" s="14"/>
     </row>
-    <row r="14" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="51"/>
       <c r="C14" s="51"/>
@@ -3383,7 +3388,7 @@
       <c r="AE14" s="14"/>
       <c r="AF14" s="14"/>
     </row>
-    <row r="15" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A15" s="54" t="s">
         <v>76</v>
       </c>
@@ -3419,7 +3424,7 @@
       <c r="AE15" s="14"/>
       <c r="AF15" s="14"/>
     </row>
-    <row r="16" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" ht="14" x14ac:dyDescent="0.3">
       <c r="A16" s="54"/>
       <c r="B16" s="51"/>
       <c r="C16" s="51"/>
@@ -3453,7 +3458,7 @@
       <c r="AE16" s="14"/>
       <c r="AF16" s="14"/>
     </row>
-    <row r="17" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A17" s="54" t="s">
         <v>77</v>
       </c>
@@ -3489,12 +3494,12 @@
       <c r="AE17" s="14"/>
       <c r="AF17" s="14"/>
     </row>
-    <row r="18" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+    <row r="18" spans="1:32" ht="14" x14ac:dyDescent="0.3">
+      <c r="A18" s="54"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
@@ -3523,43 +3528,43 @@
       <c r="AE18" s="14"/>
       <c r="AF18" s="14"/>
     </row>
-    <row r="19" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="17"/>
-      <c r="AB19" s="17"/>
-      <c r="AC19" s="17"/>
-      <c r="AD19" s="55"/>
-      <c r="AE19" s="17"/>
-      <c r="AF19" s="17"/>
-    </row>
-    <row r="20" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" ht="14" x14ac:dyDescent="0.3">
+      <c r="A19" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="14"/>
+      <c r="AF19" s="14"/>
+    </row>
+    <row r="20" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3593,44 +3598,44 @@
       <c r="AE20" s="14"/>
       <c r="AF20" s="14"/>
     </row>
-    <row r="21" spans="1:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="32"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="53"/>
-      <c r="AE21" s="14"/>
-      <c r="AF21" s="14"/>
-    </row>
-    <row r="22" spans="1:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="54" t="s">
-        <v>69</v>
-      </c>
+    <row r="21" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+      <c r="Z21" s="17"/>
+      <c r="AA21" s="17"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="17"/>
+      <c r="AD21" s="55"/>
+      <c r="AE21" s="17"/>
+      <c r="AF21" s="17"/>
+    </row>
+    <row r="22" spans="1:32" ht="14" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
       <c r="D22" s="11"/>
@@ -3663,7 +3668,7 @@
       <c r="AE22" s="14"/>
       <c r="AF22" s="14"/>
     </row>
-    <row r="23" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A23" s="32"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -3697,9 +3702,9 @@
       <c r="AE23" s="14"/>
       <c r="AF23" s="14"/>
     </row>
-    <row r="24" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A24" s="54" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -3733,8 +3738,8 @@
       <c r="AE24" s="14"/>
       <c r="AF24" s="14"/>
     </row>
-    <row r="25" spans="1:32" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
+    <row r="25" spans="1:32" ht="14" x14ac:dyDescent="0.3">
+      <c r="A25" s="32"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
       <c r="D25" s="11"/>
@@ -3767,9 +3772,9 @@
       <c r="AE25" s="14"/>
       <c r="AF25" s="14"/>
     </row>
-    <row r="26" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" ht="14" x14ac:dyDescent="0.3">
       <c r="A26" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -3803,8 +3808,8 @@
       <c r="AE26" s="14"/>
       <c r="AF26" s="14"/>
     </row>
-    <row r="27" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+    <row r="27" spans="1:32" ht="14" x14ac:dyDescent="0.3">
+      <c r="A27" s="54"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
       <c r="D27" s="11"/>
@@ -3837,225 +3842,221 @@
       <c r="AE27" s="14"/>
       <c r="AF27" s="14"/>
     </row>
-    <row r="28" spans="1:32" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
+    <row r="28" spans="1:32" ht="14" x14ac:dyDescent="0.3">
+      <c r="A28" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="53"/>
+      <c r="AE28" s="14"/>
+      <c r="AF28" s="14"/>
+    </row>
+    <row r="29" spans="1:32" ht="14" x14ac:dyDescent="0.3">
+      <c r="A29" s="54"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+      <c r="T29" s="14"/>
+      <c r="U29" s="14"/>
+      <c r="V29" s="14"/>
+      <c r="W29" s="14"/>
+      <c r="X29" s="14"/>
+      <c r="Y29" s="14"/>
+      <c r="Z29" s="14"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AC29" s="14"/>
+      <c r="AD29" s="53"/>
+      <c r="AE29" s="14"/>
+      <c r="AF29" s="14"/>
+    </row>
+    <row r="30" spans="1:32" ht="14" x14ac:dyDescent="0.3">
+      <c r="A30" s="54" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+      <c r="T30" s="14"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="14"/>
+      <c r="W30" s="14"/>
+      <c r="X30" s="14"/>
+      <c r="Y30" s="14"/>
+      <c r="Z30" s="14"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AC30" s="14"/>
+      <c r="AD30" s="53"/>
+      <c r="AE30" s="14"/>
+      <c r="AF30" s="14"/>
+    </row>
+    <row r="31" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+      <c r="T31" s="14"/>
+      <c r="U31" s="14"/>
+      <c r="V31" s="14"/>
+      <c r="W31" s="14"/>
+      <c r="X31" s="14"/>
+      <c r="Y31" s="14"/>
+      <c r="Z31" s="14"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AC31" s="14"/>
+      <c r="AD31" s="53"/>
+      <c r="AE31" s="14"/>
+      <c r="AF31" s="14"/>
+    </row>
+    <row r="32" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="17"/>
-      <c r="AB28" s="17"/>
-      <c r="AC28" s="17"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="17"/>
-      <c r="AF28" s="17"/>
-    </row>
-    <row r="29" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
+    </row>
+    <row r="33" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="20"/>
-      <c r="Y29" s="20"/>
-      <c r="Z29" s="20"/>
-      <c r="AA29" s="20"/>
-      <c r="AB29" s="20"/>
-      <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
-      <c r="AF29" s="20"/>
-    </row>
-    <row r="30" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+    </row>
+    <row r="34" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="21"/>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="21"/>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="21"/>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-    </row>
-    <row r="31" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
-      <c r="AB31" s="21"/>
-      <c r="AC31" s="21"/>
-      <c r="AD31" s="21"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
-    </row>
-    <row r="32" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="21"/>
-      <c r="X32" s="21"/>
-      <c r="Y32" s="21"/>
-      <c r="Z32" s="21"/>
-      <c r="AA32" s="21"/>
-      <c r="AB32" s="21"/>
-      <c r="AC32" s="21"/>
-      <c r="AD32" s="21"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
-    </row>
-    <row r="33" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
-      <c r="W33" s="21"/>
-      <c r="X33" s="21"/>
-      <c r="Y33" s="21"/>
-      <c r="Z33" s="21"/>
-      <c r="AA33" s="21"/>
-      <c r="AB33" s="21"/>
-      <c r="AC33" s="21"/>
-      <c r="AD33" s="21"/>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
-    </row>
-    <row r="34" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="21"/>
@@ -4089,9 +4090,9 @@
       <c r="AE34" s="22"/>
       <c r="AF34" s="22"/>
     </row>
-    <row r="35" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="21"/>
@@ -4125,9 +4126,9 @@
       <c r="AE35" s="22"/>
       <c r="AF35" s="22"/>
     </row>
-    <row r="36" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="21"/>
@@ -4161,9 +4162,9 @@
       <c r="AE36" s="22"/>
       <c r="AF36" s="22"/>
     </row>
-    <row r="37" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="21"/>
@@ -4197,9 +4198,9 @@
       <c r="AE37" s="22"/>
       <c r="AF37" s="22"/>
     </row>
-    <row r="38" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B38" s="18"/>
       <c r="C38" s="21"/>
@@ -4233,191 +4234,191 @@
       <c r="AE38" s="22"/>
       <c r="AF38" s="22"/>
     </row>
-    <row r="39" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B39" s="18"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
-      <c r="AA39" s="22"/>
-      <c r="AB39" s="22"/>
-      <c r="AC39" s="22"/>
-      <c r="AD39" s="22"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="21"/>
+      <c r="AC39" s="21"/>
+      <c r="AD39" s="21"/>
       <c r="AE39" s="22"/>
       <c r="AF39" s="22"/>
     </row>
-    <row r="40" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="18"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="21"/>
+      <c r="AC40" s="21"/>
+      <c r="AD40" s="21"/>
+      <c r="AE40" s="22"/>
+      <c r="AF40" s="22"/>
+    </row>
+    <row r="41" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="21"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="21"/>
+      <c r="AE41" s="22"/>
+      <c r="AF41" s="22"/>
+    </row>
+    <row r="42" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" s="18"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+    </row>
+    <row r="43" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+    </row>
+    <row r="44" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
-      <c r="R40" s="56"/>
-      <c r="S40" s="56"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="56"/>
-      <c r="V40" s="56"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="56"/>
-      <c r="Y40" s="56"/>
-      <c r="Z40" s="56"/>
-      <c r="AA40" s="56"/>
-      <c r="AB40" s="56"/>
-      <c r="AC40" s="56"/>
-      <c r="AD40" s="56"/>
-      <c r="AE40" s="56"/>
-      <c r="AF40" s="56"/>
-    </row>
-    <row r="41" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
-      <c r="Q41" s="56"/>
-      <c r="R41" s="56"/>
-      <c r="S41" s="56"/>
-      <c r="T41" s="56"/>
-      <c r="U41" s="56"/>
-      <c r="V41" s="56"/>
-      <c r="W41" s="56"/>
-      <c r="X41" s="56"/>
-      <c r="Y41" s="56"/>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="56"/>
-      <c r="AB41" s="56"/>
-      <c r="AC41" s="56"/>
-      <c r="AD41" s="56"/>
-      <c r="AE41" s="56"/>
-      <c r="AF41" s="56"/>
-    </row>
-    <row r="42" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="56"/>
-      <c r="V42" s="56"/>
-      <c r="W42" s="56"/>
-      <c r="X42" s="56"/>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="56"/>
-      <c r="AB42" s="56"/>
-      <c r="AC42" s="56"/>
-      <c r="AD42" s="56"/>
-      <c r="AE42" s="56"/>
-      <c r="AF42" s="56"/>
-    </row>
-    <row r="43" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="56"/>
-      <c r="V43" s="56"/>
-      <c r="W43" s="56"/>
-      <c r="X43" s="56"/>
-      <c r="Y43" s="56"/>
-      <c r="Z43" s="56"/>
-      <c r="AA43" s="56"/>
-      <c r="AB43" s="56"/>
-      <c r="AC43" s="56"/>
-      <c r="AD43" s="56"/>
-      <c r="AE43" s="56"/>
-      <c r="AF43" s="56"/>
-    </row>
-    <row r="44" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>78</v>
-      </c>
       <c r="B44" s="18"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
       <c r="L44" s="56"/>
       <c r="M44" s="56"/>
       <c r="N44" s="56"/>
@@ -4440,8 +4441,10 @@
       <c r="AE44" s="56"/>
       <c r="AF44" s="56"/>
     </row>
-    <row r="45" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="18"/>
+    <row r="45" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="B45" s="18"/>
       <c r="C45" s="56"/>
       <c r="D45" s="56"/>
@@ -4474,8 +4477,10 @@
       <c r="AE45" s="56"/>
       <c r="AF45" s="56"/>
     </row>
-    <row r="46" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18"/>
+    <row r="46" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18" t="s">
+        <v>68</v>
+      </c>
       <c r="B46" s="18"/>
       <c r="C46" s="56"/>
       <c r="D46" s="56"/>
@@ -4508,20 +4513,22 @@
       <c r="AE46" s="56"/>
       <c r="AF46" s="56"/>
     </row>
-    <row r="47" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="56"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="56"/>
-      <c r="L47" s="56"/>
-      <c r="M47" s="56"/>
+    <row r="47" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="43"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
       <c r="N47" s="56"/>
       <c r="O47" s="56"/>
       <c r="P47" s="56"/>
@@ -4542,79 +4549,219 @@
       <c r="AE47" s="56"/>
       <c r="AF47" s="56"/>
     </row>
-    <row r="48" spans="1:32" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+    <row r="48" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="18"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+      <c r="J48" s="56"/>
+      <c r="K48" s="56"/>
+      <c r="L48" s="56"/>
+      <c r="M48" s="56"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="56"/>
+      <c r="P48" s="56"/>
+      <c r="Q48" s="56"/>
+      <c r="R48" s="56"/>
+      <c r="S48" s="56"/>
+      <c r="T48" s="56"/>
+      <c r="U48" s="56"/>
+      <c r="V48" s="56"/>
+      <c r="W48" s="56"/>
+      <c r="X48" s="56"/>
+      <c r="Y48" s="56"/>
+      <c r="Z48" s="56"/>
+      <c r="AA48" s="56"/>
+      <c r="AB48" s="56"/>
+      <c r="AC48" s="56"/>
+      <c r="AD48" s="56"/>
+      <c r="AE48" s="56"/>
+      <c r="AF48" s="56"/>
+    </row>
+    <row r="49" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="56"/>
+      <c r="J49" s="56"/>
+      <c r="K49" s="56"/>
+      <c r="L49" s="56"/>
+      <c r="M49" s="56"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="56"/>
+      <c r="P49" s="56"/>
+      <c r="Q49" s="56"/>
+      <c r="R49" s="56"/>
+      <c r="S49" s="56"/>
+      <c r="T49" s="56"/>
+      <c r="U49" s="56"/>
+      <c r="V49" s="56"/>
+      <c r="W49" s="56"/>
+      <c r="X49" s="56"/>
+      <c r="Y49" s="56"/>
+      <c r="Z49" s="56"/>
+      <c r="AA49" s="56"/>
+      <c r="AB49" s="56"/>
+      <c r="AC49" s="56"/>
+      <c r="AD49" s="56"/>
+      <c r="AE49" s="56"/>
+      <c r="AF49" s="56"/>
+    </row>
+    <row r="50" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
+      <c r="V50" s="56"/>
+      <c r="W50" s="56"/>
+      <c r="X50" s="56"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="56"/>
+      <c r="AB50" s="56"/>
+      <c r="AC50" s="56"/>
+      <c r="AD50" s="56"/>
+      <c r="AE50" s="56"/>
+      <c r="AF50" s="56"/>
+    </row>
+    <row r="51" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="56"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="56"/>
+      <c r="K51" s="56"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="56"/>
+      <c r="P51" s="56"/>
+      <c r="Q51" s="56"/>
+      <c r="R51" s="56"/>
+      <c r="S51" s="56"/>
+      <c r="T51" s="56"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="56"/>
+      <c r="W51" s="56"/>
+      <c r="X51" s="56"/>
+      <c r="Y51" s="56"/>
+      <c r="Z51" s="56"/>
+      <c r="AA51" s="56"/>
+      <c r="AB51" s="56"/>
+      <c r="AC51" s="56"/>
+      <c r="AD51" s="56"/>
+      <c r="AE51" s="56"/>
+      <c r="AF51" s="56"/>
+    </row>
+    <row r="52" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="58"/>
-      <c r="G49" s="6"/>
-      <c r="L49" s="59" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="6"/>
+      <c r="L53" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="T49" s="59" t="s">
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
+      <c r="T53" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="U49" s="59"/>
-      <c r="V49" s="59"/>
-      <c r="W49" s="59"/>
-      <c r="X49" s="59"/>
-      <c r="Y49" s="59"/>
-    </row>
-    <row r="50" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" spans="1:25" ht="13.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25" t="s">
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59"/>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
+    </row>
+    <row r="54" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+    </row>
+    <row r="55" spans="1:32" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="25"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A3:AF3"/>
-    <mergeCell ref="L49:N49"/>
-    <mergeCell ref="T49:Y49"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="T53:Y53"/>
   </mergeCells>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="44" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Negrita"&amp;8&amp;U
 RECOPILACIÓN DE NORMAS PARA SERVICIOS FINANCIEROS&amp;R&amp;"Times New Roman,Negrita Cursiva"&amp;7AUTORIDAD DE SUPERVISIÓN DEL SISTEMA FINANCIERO</oddHeader>
-    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8&amp;K0000FFControl de versiones&amp;K01+000
-Circular ASFI/785/2023 (Inicial)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
+    <oddFooter>&amp;L&amp;"Times New Roman,Normal"&amp;8&amp;K0000FFControl de Versiones
+Circular ASFI/833/2024 (última)&amp;R&amp;"Times New Roman,Normal"&amp;8Libro 5°
 Título II
 Capítulo III
 Anexo 23b
